--- a/04_Differential_expression/input/comparisons.xlsx
+++ b/04_Differential_expression/input/comparisons.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mojcaj\Documents\GitHub\Lisa_RNA-Seq_analysis\04_Differential_expression\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77C4C7-2068-4433-8524-AB41666DF520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D45DA88-D4DD-48BA-BCDB-62D268E48021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F98CA291-FDC7-4DDD-8FAB-26D91400CF24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{F98CA291-FDC7-4DDD-8FAB-26D91400CF24}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,12 +129,30 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -177,17 +195,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,238 +551,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CDE68D-62F1-404A-9C33-5FA748B0F634}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
